--- a/src/excel/AntigenSupportingData- Typhoid-508.xlsx
+++ b/src/excel/AntigenSupportingData- Typhoid-508.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.59 - 508\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.63 - 508 - DRAFT\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C112C18-3F38-447E-9127-D31BACA102CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320BAF81-268C-48B2-B2CB-6E4F0D2E8751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -705,18 +705,6 @@
     <t>Foreign use vaccine. Does not count towards U.S. Typhoid schedule</t>
   </si>
   <si>
-    <t>&gt;= 2 yrs</t>
-  </si>
-  <si>
-    <t>&gt;= 2 yrs - 4 d</t>
-  </si>
-  <si>
-    <t>&gt;= 6 yrs</t>
-  </si>
-  <si>
-    <t>&gt;= 6 yrs - 4 d</t>
-  </si>
-  <si>
     <t>Minimum Age To Start for both Risk series</t>
   </si>
   <si>
@@ -802,20 +790,39 @@
   </si>
   <si>
     <t>Publication Date: 11/08/2024</t>
+  </si>
+  <si>
+    <t>≥2 yrs</t>
+  </si>
+  <si>
+    <t>≥6 yrs</t>
+  </si>
+  <si>
+    <t>≥2 yrs - 4 days</t>
+  </si>
+  <si>
+    <t>≥6 yrs - 4 days</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1628,491 +1635,494 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="14" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="14" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="22" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="16" borderId="22" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="14" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="23" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="20" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="22" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="22" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="23" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="15" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="19" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="32" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="19" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="22" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="32" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="20" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="19" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="15" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="14" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="14" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="31" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="22" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="16" borderId="22" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="14" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="23" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="20" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="22" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="22" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="15" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="23" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="15" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="19" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="32" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="19" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="22" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="32" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="20" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="19" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="15" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="22">
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -2120,7 +2130,10 @@
     <cellStyle name="Normal 2 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 2 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 2 2 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2 2 3 2 2" xfId="19" xr:uid="{98BDF8CE-9A1C-4D37-A60A-9A1AAF7F21A0}"/>
+    <cellStyle name="Normal 2 2 3_Change History" xfId="21" xr:uid="{E15511A2-E172-4E77-B6DA-CF69294D461E}"/>
     <cellStyle name="Normal 2 2 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 2 2 4 2" xfId="20" xr:uid="{11992BFA-1DEC-41D1-B4CF-59A55F860511}"/>
     <cellStyle name="Normal 2 2_2-dose" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Normal_Antigen Series Overview" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Normal_Risk 1-dose" xfId="8" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
@@ -2133,8 +2146,36 @@
     <cellStyle name="Normal_Sheet1_Risk 1-dose_1" xfId="15" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Normal_Sheet1_Standard" xfId="14" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{111D91F3-AA02-42EC-A206-B1FA5285E353}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2656,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C18" s="149"/>
       <c r="D18" s="149"/>
@@ -2671,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C19" s="149"/>
       <c r="D19" s="149"/>
@@ -2686,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C20" s="149"/>
       <c r="D20" s="149"/>
@@ -2701,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C21" s="149"/>
       <c r="D21" s="149"/>
@@ -2716,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C22" s="149"/>
       <c r="D22" s="149"/>
@@ -2771,10 +2812,10 @@
         <v>84</v>
       </c>
       <c r="C25" s="153" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="D25" s="153" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="E25" s="137" t="s">
         <v>85</v>
@@ -2786,7 +2827,7 @@
         <v>9</v>
       </c>
       <c r="H25" s="57"/>
-      <c r="I25" s="56"/>
+      <c r="I25" s="39"/>
     </row>
     <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
@@ -2819,10 +2860,10 @@
         <v>87</v>
       </c>
       <c r="C27" s="153" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="D27" s="153" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="E27" s="137" t="s">
         <v>166</v>
@@ -3000,7 +3041,7 @@
         <v>4.59</v>
       </c>
       <c r="C1" s="155" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3031,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D3" s="49" t="s">
         <v>10</v>
@@ -3040,7 +3081,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G3" s="23"/>
     </row>
@@ -3052,16 +3093,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -3072,16 +3113,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D5" s="73" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -3120,16 +3161,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D9" s="48" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -3208,7 +3249,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D15" s="48" t="s">
         <v>53</v>
@@ -3217,7 +3258,7 @@
         <v>122</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -3379,7 +3420,7 @@
         <v>180</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E2" s="145" t="s">
         <v>10</v>
@@ -3413,7 +3454,7 @@
         <v>194</v>
       </c>
       <c r="D4" s="144" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E4" s="49" t="s">
         <v>195</v>
@@ -3464,13 +3505,13 @@
         <v>63</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -3827,10 +3868,10 @@
         <v>75</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>10</v>
@@ -3873,13 +3914,13 @@
         <v>75</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D18" s="158" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>87</v>
